--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tgfb3-Acvrl1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H2">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I2">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J2">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.5081921177646</v>
+        <v>24.42119933333333</v>
       </c>
       <c r="N2">
-        <v>13.5081921177646</v>
+        <v>73.263598</v>
       </c>
       <c r="O2">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="P2">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="Q2">
-        <v>15.18331382515532</v>
+        <v>44.58209602176733</v>
       </c>
       <c r="R2">
-        <v>15.18331382515532</v>
+        <v>401.238864195906</v>
       </c>
       <c r="S2">
-        <v>0.009076258282788635</v>
+        <v>0.01919557096960537</v>
       </c>
       <c r="T2">
-        <v>0.009076258282788635</v>
+        <v>0.01919557096960537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H3">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I3">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J3">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>32.522816339454</v>
+        <v>33.48129</v>
       </c>
       <c r="N3">
-        <v>32.522816339454</v>
+        <v>100.44387</v>
       </c>
       <c r="O3">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="P3">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="Q3">
-        <v>36.55590049762607</v>
+        <v>61.12173547821</v>
       </c>
       <c r="R3">
-        <v>36.55590049762607</v>
+        <v>550.09561930389</v>
       </c>
       <c r="S3">
-        <v>0.0218523306899363</v>
+        <v>0.02631699080690544</v>
       </c>
       <c r="T3">
-        <v>0.0218523306899363</v>
+        <v>0.02631699080690544</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.124007838561</v>
+        <v>1.825549</v>
       </c>
       <c r="H4">
-        <v>1.124007838561</v>
+        <v>5.476647</v>
       </c>
       <c r="I4">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="J4">
-        <v>0.03205967974269051</v>
+        <v>0.04696949406168958</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.68340200854563</v>
+        <v>1.853554333333333</v>
       </c>
       <c r="N4">
-        <v>1.68340200854563</v>
+        <v>5.560663</v>
       </c>
       <c r="O4">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="P4">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="Q4">
-        <v>1.89215705305462</v>
+        <v>3.383754259662333</v>
       </c>
       <c r="R4">
-        <v>1.89215705305462</v>
+        <v>30.453788336961</v>
       </c>
       <c r="S4">
-        <v>0.001131090769965577</v>
+        <v>0.001456932285178769</v>
       </c>
       <c r="T4">
-        <v>0.001131090769965577</v>
+        <v>0.001456932285178769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.5282722583196</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H5">
-        <v>23.5282722583196</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I5">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J5">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.5081921177646</v>
+        <v>24.42119933333333</v>
       </c>
       <c r="N5">
-        <v>13.5081921177646</v>
+        <v>73.263598</v>
       </c>
       <c r="O5">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="P5">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="Q5">
-        <v>317.8244218644523</v>
+        <v>575.7878071933491</v>
       </c>
       <c r="R5">
-        <v>317.8244218644523</v>
+        <v>5182.090264740141</v>
       </c>
       <c r="S5">
-        <v>0.1899886002909668</v>
+        <v>0.2479151207026456</v>
       </c>
       <c r="T5">
-        <v>0.1899886002909668</v>
+        <v>0.2479151207026456</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.5282722583196</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H6">
-        <v>23.5282722583196</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I6">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J6">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>32.522816339454</v>
+        <v>33.48129</v>
       </c>
       <c r="N6">
-        <v>32.522816339454</v>
+        <v>100.44387</v>
       </c>
       <c r="O6">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="P6">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="Q6">
-        <v>765.205677441999</v>
+        <v>789.40097445547</v>
       </c>
       <c r="R6">
-        <v>765.205677441999</v>
+        <v>7104.608770099229</v>
       </c>
       <c r="S6">
-        <v>0.4574234879090227</v>
+        <v>0.3398898611953353</v>
       </c>
       <c r="T6">
-        <v>0.4574234879090227</v>
+        <v>0.3398898611953353</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>23.5282722583196</v>
+        <v>23.57737633333333</v>
       </c>
       <c r="H7">
-        <v>23.5282722583196</v>
+        <v>70.73212899999999</v>
       </c>
       <c r="I7">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="J7">
-        <v>0.6710886237824218</v>
+        <v>0.6066215903701957</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68340200854563</v>
+        <v>1.853554333333333</v>
       </c>
       <c r="N7">
-        <v>1.68340200854563</v>
+        <v>5.560663</v>
       </c>
       <c r="O7">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="P7">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="Q7">
-        <v>39.60754077726364</v>
+        <v>43.70194807128077</v>
       </c>
       <c r="R7">
-        <v>39.60754077726364</v>
+        <v>393.3175326415269</v>
       </c>
       <c r="S7">
-        <v>0.0236765355824324</v>
+        <v>0.01881660847221475</v>
       </c>
       <c r="T7">
-        <v>0.0236765355824324</v>
+        <v>0.01881660847221475</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.407578503774</v>
+        <v>13.46376966666667</v>
       </c>
       <c r="H8">
-        <v>10.407578503774</v>
+        <v>40.391309</v>
       </c>
       <c r="I8">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="J8">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.5081921177646</v>
+        <v>24.42119933333333</v>
       </c>
       <c r="N8">
-        <v>13.5081921177646</v>
+        <v>73.263598</v>
       </c>
       <c r="O8">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="P8">
-        <v>0.2831050826344573</v>
+        <v>0.4086816635579248</v>
       </c>
       <c r="Q8">
-        <v>140.5875699096962</v>
+        <v>328.8014028077536</v>
       </c>
       <c r="R8">
-        <v>140.5875699096962</v>
+        <v>2959.212625269782</v>
       </c>
       <c r="S8">
-        <v>0.08404022406070193</v>
+        <v>0.1415709718856739</v>
       </c>
       <c r="T8">
-        <v>0.08404022406070193</v>
+        <v>0.1415709718856739</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.407578503774</v>
+        <v>13.46376966666667</v>
       </c>
       <c r="H9">
-        <v>10.407578503774</v>
+        <v>40.391309</v>
       </c>
       <c r="I9">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="J9">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.522816339454</v>
+        <v>33.48129</v>
       </c>
       <c r="N9">
-        <v>32.522816339454</v>
+        <v>100.44387</v>
       </c>
       <c r="O9">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="P9">
-        <v>0.681614129190375</v>
+        <v>0.5602996441124273</v>
       </c>
       <c r="Q9">
-        <v>338.4837642166913</v>
+        <v>450.78437670287</v>
       </c>
       <c r="R9">
-        <v>338.4837642166913</v>
+        <v>4057.05939032583</v>
       </c>
       <c r="S9">
-        <v>0.2023383105914161</v>
+        <v>0.1940927921101866</v>
       </c>
       <c r="T9">
-        <v>0.2023383105914161</v>
+        <v>0.1940927921101866</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.407578503774</v>
+        <v>13.46376966666667</v>
       </c>
       <c r="H10">
-        <v>10.407578503774</v>
+        <v>40.391309</v>
       </c>
       <c r="I10">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="J10">
-        <v>0.2968516964748877</v>
+        <v>0.3464089155681148</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.68340200854563</v>
+        <v>1.853554333333333</v>
       </c>
       <c r="N10">
-        <v>1.68340200854563</v>
+        <v>5.560663</v>
       </c>
       <c r="O10">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="P10">
-        <v>0.03528078817516764</v>
+        <v>0.03101869232964781</v>
       </c>
       <c r="Q10">
-        <v>17.52013855734947</v>
+        <v>24.95582860865189</v>
       </c>
       <c r="R10">
-        <v>17.52013855734947</v>
+        <v>224.602457477867</v>
       </c>
       <c r="S10">
-        <v>0.01047316182276967</v>
+        <v>0.0107451515722543</v>
       </c>
       <c r="T10">
-        <v>0.01047316182276967</v>
+        <v>0.0107451515722543</v>
       </c>
     </row>
   </sheetData>
